--- a/Clinical_Validation_Data.xlsx
+++ b/Clinical_Validation_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chlee/Documents/Arnold_Lab/Ryan_Collaboration/BV MNZ Manuscript/Paper_Corrections/Nature_Microbe_Reviewers_Revision/Clinical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5912AEA5-176E-054F-9E0C-D439AEF60BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A1869B-4119-4644-9154-508448D579E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="520" windowWidth="23800" windowHeight="15760" xr2:uid="{96CEA0CB-4ED2-0F4F-8B87-1F32DC98922B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="UMB-HMP" sheetId="1" r:id="rId1"/>
     <sheet name="CONRAD BV" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -303,13 +303,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +628,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +876,7 @@
       <c r="D7" s="18">
         <v>8.7394024847985405E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="22">
         <f t="shared" si="0"/>
         <v>0.68279506544420887</v>
       </c>
@@ -911,7 +912,7 @@
       <c r="D8" s="18">
         <v>3.9309299568319897E-2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="22">
         <f t="shared" si="0"/>
         <v>0.76406478910503861</v>
       </c>
@@ -947,7 +948,7 @@
       <c r="D9" s="19">
         <v>0.35232366130732401</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>-0.3806523737778762</v>
       </c>
@@ -1300,7 +1301,7 @@
       <c r="D13" s="18">
         <v>2.1712233087208099E-2</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f t="shared" si="0"/>
         <v>0.74036268949424389</v>
       </c>
@@ -1324,7 +1325,7 @@
       <c r="D14" s="18">
         <v>6.89977173687487E-3</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f t="shared" si="0"/>
         <v>0.66005193830564912</v>
       </c>
@@ -1348,7 +1349,7 @@
       <c r="D15" s="18">
         <v>3.52129956811936E-3</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f t="shared" si="0"/>
         <v>1.2240148113728639</v>
       </c>
@@ -1372,7 +1373,7 @@
       <c r="D16" s="18">
         <v>8.5021033387174105E-3</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>1.1391791757229102</v>
       </c>
@@ -1396,7 +1397,7 @@
       <c r="D17" s="18">
         <v>9.49793409951043E-2</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>0.28234778269622701</v>
       </c>
@@ -1420,7 +1421,7 @@
       <c r="D18" s="18">
         <v>1.75379071508798E-2</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f t="shared" si="0"/>
         <v>-5.1152522447381256E-2</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="D19" s="18">
         <v>1.48226574907358E-2</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1468,7 +1469,7 @@
       <c r="D20" s="18">
         <v>2.0736632708421199E-3</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f t="shared" si="0"/>
         <v>1.2304489213782739</v>
       </c>
@@ -1492,7 +1493,7 @@
       <c r="D21" s="18">
         <v>0.13378207824989499</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>0.236304666027326</v>
       </c>
@@ -1516,7 +1517,7 @@
       <c r="D22" s="19">
         <v>1.1632946328779001E-3</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <f>LOG10(F22/G22)</f>
         <v>1.1139433523068367</v>
       </c>
